--- a/Question_Set2/Role-specific skills/International Standards on Auditing.xlsx
+++ b/Question_Set2/Role-specific skills/International Standards on Auditing.xlsx
@@ -16,23 +16,63 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'You are the senior auditor for a client’s external audit. During the course of the audit, the client’s management sends calendars and notebooks for the audit team. True or false: You can accept these gifts they do not pose a significant threat to compliance according to the fundamental principles in the ISA code of ethics.', 'ques_type': 11, 'options': ['true', 'false'], 'score': 'True'}, {'title': 'You are a senior auditor for the external audit of your firm’s client. While reviewing the client’s financial information to plan the overall audit strategy, you learn that your client has processed a large number of journal entries near the year end. Which of the following actions should you take?', 'ques_type': 2, 'options': ['Segregate out the accounts with year-end entries and extensively apply substantive procedures.', 'Perform 100% verification of these year-end entries.', 'Recommend the inclusion of an “emphasis of matter” paragraph in the audit report.', 'Recommend issuance of a qualified audit opinion.'], 'score': 'Segregate out the accounts with year-end entries and extensively apply substantive procedures.'}, {'title': "You are an engagement partner for an external audit. Your client’s management provides the basis to support the going concern status of the client. Despite your significant level of concerns on the basis provided, you do not disagree with the client's management regarding their support of the going concern status. The client has also made an appropriate disclosure in the financial statements.  What impact should you consider on the auditor's report?", 'ques_type': 15, 'options': ['Explanatory paragraph', 'Unqualified opinion', 'Qualified opinion', 'Disclaimer of opinion', 'Adverse opinion', 'Scope limitation'], 'score': ['Explanatory paragraph', 'Unqualified opinion']}, {'title': 'You are an engagement partner for the audit of one of your clients. Based on sufficient and appropriate audit evidence, your audit team has identified a misstatement. You review the misstatement in detail and decide that it is material and pervasive. Which type of opinion should you express in the auditor’s report?', 'ques_type': 2, 'options': ['Unmodified opinion', 'Qualified opinion', 'Disclaimer of opinion', 'Adverse opinion'], 'score': 'Adverse opinion'}]</t>
+    <t>questions = [
+    {
+        "title": "You are the senior auditor for a client\u2019s external audit. During the course of the audit, the client\u2019s management sends calendars and notebooks for the audit team. True or false: You can accept these gifts they do not pose a significant threat to compliance according to the fundamental principles in the ISA code of ethics.",
+        "ques_type": 11,
+        "options": [
+            "true",
+            "false"
+        ],
+        "score": "True"
+    },
+    {
+        "title": "You are a senior auditor for the external audit of your firm\u2019s client. While reviewing the client\u2019s financial information to plan the overall audit strategy, you learn that your client has processed a large number of journal entries near the year end. Which of the following actions should you take?",
+        "ques_type": 2,
+        "options": [
+            "Segregate out the accounts with year-end entries and extensively apply substantive procedures.",
+            "Perform 100% verification of these year-end entries.",
+            "Recommend the inclusion of an \u201cemphasis of matter\u201d paragraph in the audit report.",
+            "Recommend issuance of a qualified audit opinion."
+        ],
+        "score": "Segregate out the accounts with year-end entries and extensively apply substantive procedures."
+    },
+    {
+        "title": "You are an engagement partner for an external audit. Your client\u2019s management provides the basis to support the going concern status of the client. Despite your significant level of concerns on the basis provided, you do not disagree with the client's management regarding their support of the going concern status. The client has also made an appropriate disclosure in the financial statements.  What impact should you consider on the auditor's report?",
+        "ques_type": 15,
+        "options": [
+            "Explanatory paragraph",
+            "Unqualified opinion",
+            "Qualified opinion",
+            "Disclaimer of opinion",
+            "Adverse opinion",
+            "Scope limitation"
+        ],
+        "score": [
+            "Explanatory paragraph",
+            "Unqualified opinion"
+        ]
+    },
+    {
+        "title": "You are an engagement partner for the audit of one of your clients. Based on sufficient and appropriate audit evidence, your audit team has identified a misstatement. You review the misstatement in detail and decide that it is material and pervasive. Which type of opinion should you express in the auditor\u2019s report?",
+        "ques_type": 2,
+        "options": [
+            "Unmodified opinion",
+            "Qualified opinion",
+            "Disclaimer of opinion",
+            "Adverse opinion"
+        ],
+        "score": "Adverse opinion"
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +88,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +96,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +396,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
